--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FTL Balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luna\PycharmProjects\first-contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596514B3-9C07-4FE0-90C3-00C78A7E111A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65F2E0-93C6-49C4-AD43-A6C3931C7D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{777C135D-F560-4EBB-9586-EFCFD2AE7990}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
   <si>
     <t>ENGI</t>
   </si>
@@ -348,9 +342,6 @@
     <t>boarding drones</t>
   </si>
   <si>
-    <t>small crew</t>
-  </si>
-  <si>
     <t>no cloaking</t>
   </si>
   <si>
@@ -375,15 +366,9 @@
     <t>delay bombs</t>
   </si>
   <si>
-    <t>burst laser 3</t>
-  </si>
-  <si>
     <t>crystal 1 -&gt; heavy laser 2</t>
   </si>
   <si>
-    <t>flak 1, scythe</t>
-  </si>
-  <si>
     <t>2x flak 2</t>
   </si>
   <si>
@@ -448,6 +433,48 @@
   </si>
   <si>
     <t>take hull smashers from slugs</t>
+  </si>
+  <si>
+    <t>Kestrel A</t>
+  </si>
+  <si>
+    <t>Kestrel B</t>
+  </si>
+  <si>
+    <t>Fed A</t>
+  </si>
+  <si>
+    <t>crew bombing</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>flak arty, human+lanius crew, scythe beam</t>
+  </si>
+  <si>
+    <t>SLOTS</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Fed B</t>
+  </si>
+  <si>
+    <t>leto -&gt; taurus, beam arty -&gt; missile arty</t>
+  </si>
+  <si>
+    <t>bl3, new races</t>
+  </si>
+  <si>
+    <t>flak 1, heavy laser 1</t>
   </si>
 </sst>
 </file>
@@ -478,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -596,11 +623,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,6 +707,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,9 +1038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB5B6EC-7B40-4E89-8B24-A8743EE0FB65}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -986,650 +1050,901 @@
     <col min="2" max="2" width="24" style="6" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="7" width="3.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="9"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="D3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="I4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="C6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>8</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="C23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E27" s="7">
+        <v>4</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>8</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="6" t="s">
+      <c r="J27" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="J28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E30" s="7">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="6" t="s">
+      <c r="J30" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="F25" s="1" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="I32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="J32" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E33" s="7">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7">
+        <v>8</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="J34" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3</v>
+      </c>
+      <c r="F36" s="7">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7">
+        <v>6</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7">
+        <v>8</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>136</v>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
+  <mergeCells count="21">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luna\PycharmProjects\first-contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65F2E0-93C6-49C4-AD43-A6C3931C7D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98896470-8D5A-4AC4-92B2-4B1E2BB668CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{777C135D-F560-4EBB-9586-EFCFD2AE7990}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>fire suppression</t>
-  </si>
-  <si>
     <t>drone booster</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>flak 1, heavy laser 1</t>
+  </si>
+  <si>
+    <t>repair arm</t>
   </si>
 </sst>
 </file>
@@ -694,34 +694,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,50 +1058,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="D3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
@@ -1113,17 +1113,17 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="I4" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="I4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1132,19 +1132,19 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="C6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1156,36 +1156,36 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21"/>
       <c r="I7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
@@ -1200,17 +1200,17 @@
         <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1221,14 +1221,14 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1237,18 +1237,18 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -1266,14 +1266,14 @@
         <v>10</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1281,23 +1281,23 @@
         <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1319,22 +1319,22 @@
         <v>8</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1344,14 +1344,14 @@
         <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1362,14 +1362,14 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1391,15 +1391,15 @@
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
@@ -1414,14 +1414,14 @@
         <v>61</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
@@ -1434,14 +1434,14 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1466,14 +1466,14 @@
         <v>62</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
@@ -1484,26 +1484,26 @@
         <v>63</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="C23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="C23" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1525,33 +1525,33 @@
         <v>8</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="6" t="s">
+      <c r="J25" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="6" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1573,33 +1573,33 @@
         <v>8</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1621,39 +1621,39 @@
         <v>8</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="21"/>
       <c r="I32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1663,7 +1663,7 @@
         <v>53</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="E33" s="7">
         <v>4</v>
@@ -1675,18 +1675,18 @@
         <v>8</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1695,15 +1695,15 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1712,24 +1712,24 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="7">
         <v>3</v>
@@ -1741,22 +1741,22 @@
         <v>6</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1764,14 +1764,14 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="8" t="s">
         <v>41</v>
       </c>
@@ -1782,18 +1782,18 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>34</v>
@@ -1814,12 +1814,12 @@
         <v>62</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
         <v>57</v>
@@ -1830,12 +1830,12 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
         <v>56</v>
@@ -1846,56 +1846,56 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
+      <c r="A42" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
       <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -1904,35 +1904,26 @@
         <v>42</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -1945,6 +1936,15 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luna\PycharmProjects\first-contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98896470-8D5A-4AC4-92B2-4B1E2BB668CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D158D-6912-4C06-8F4A-0F424F50EF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{777C135D-F560-4EBB-9586-EFCFD2AE7990}"/>
   </bookViews>
@@ -471,10 +471,10 @@
     <t>bl3, new races</t>
   </si>
   <si>
-    <t>flak 1, heavy laser 1</t>
-  </si>
-  <si>
     <t>repair arm</t>
+  </si>
+  <si>
+    <t>2x basic flak, 2x heavy laser 1</t>
   </si>
 </sst>
 </file>
@@ -694,6 +694,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,22 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,33 +1058,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="8" t="s">
         <v>142</v>
       </c>
@@ -1094,12 +1094,12 @@
       <c r="G2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="18"/>
       <c r="D3" s="6" t="s">
         <v>139</v>
       </c>
@@ -1117,13 +1117,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="19"/>
       <c r="I4" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1139,7 +1139,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="18"/>
       <c r="C6" s="6" t="s">
         <v>100</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="19"/>
       <c r="I7" s="1" t="s">
         <v>145</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="20"/>
       <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1208,7 +1208,7 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
         <v>127</v>
       </c>
@@ -1228,7 +1228,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1244,7 +1244,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1329,7 +1329,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1369,7 +1369,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1399,7 +1399,7 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1473,7 +1473,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="19"/>
       <c r="C23" s="6" t="s">
         <v>125</v>
       </c>
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1533,7 +1533,7 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="6" t="s">
         <v>105</v>
       </c>
@@ -1545,13 +1545,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
@@ -1591,15 +1591,15 @@
         <v>66</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="19"/>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1631,7 +1631,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="19"/>
       <c r="I32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1663,7 +1663,7 @@
         <v>53</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" s="7">
         <v>4</v>
@@ -1686,7 +1686,7 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1703,7 +1703,7 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1719,7 +1719,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="8" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1819,7 +1819,7 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
         <v>57</v>
@@ -1835,7 +1835,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
         <v>56</v>
@@ -1853,16 +1853,16 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
       <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1924,6 +1924,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -1936,15 +1945,6 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luna\PycharmProjects\first-contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0536630-2796-4538-B354-64805633E7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A1AF46-FA3E-41D8-87E0-135FFA570E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1605" yWindow="45" windowWidth="23535" windowHeight="15045" xr2:uid="{777C135D-F560-4EBB-9586-EFCFD2AE7990}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
   <si>
     <t>ENGI</t>
   </si>
@@ -433,9 +433,6 @@
     <t>ion drone, laser charger2</t>
   </si>
   <si>
-    <t>beam drone2, ion charger1</t>
-  </si>
-  <si>
     <t>Zoltan B</t>
   </si>
   <si>
@@ -538,10 +535,31 @@
     <t>MORE</t>
   </si>
   <si>
-    <t>boost weapons</t>
-  </si>
-  <si>
     <t>no airlocks</t>
+  </si>
+  <si>
+    <t>boosting weapons?</t>
+  </si>
+  <si>
+    <t>small tp, damage booster, hull laser1</t>
+  </si>
+  <si>
+    <t>small tp, invulnerability booster</t>
+  </si>
+  <si>
+    <t>beam drone2, laser charger1</t>
+  </si>
+  <si>
+    <t>algae???</t>
+  </si>
+  <si>
+    <t>toxic laser 2?</t>
+  </si>
+  <si>
+    <t>toxic missile?</t>
+  </si>
+  <si>
+    <t>toxic laser?</t>
   </si>
 </sst>
 </file>
@@ -845,20 +863,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB5B6EC-7B40-4E89-8B24-A8743EE0FB65}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1206,9 +1224,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -1219,7 +1237,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
+      <c r="A1" s="40"/>
       <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
@@ -1239,10 +1257,10 @@
       <c r="H1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -1255,10 +1273,10 @@
       <c r="G2" s="45"/>
       <c r="H2" s="47"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="40"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="39"/>
       <c r="D3" s="6" t="s">
         <v>85</v>
       </c>
@@ -1273,13 +1291,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="40"/>
       <c r="H4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1295,7 +1313,7 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
@@ -1313,7 +1331,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="40"/>
       <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
@@ -1322,16 +1340,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1356,12 +1374,12 @@
         <v>61</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>78</v>
       </c>
@@ -1376,12 +1394,12 @@
         <v>51</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1392,12 +1410,12 @@
         <v>54</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1423,7 +1441,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1437,11 +1455,11 @@
         <v>51</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +1468,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1480,7 +1498,7 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1509,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>51</v>
@@ -1502,7 +1520,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1520,7 +1538,7 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1542,13 +1560,13 @@
         <v>75</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
@@ -1565,12 +1583,12 @@
         <v>51</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1583,12 +1601,12 @@
         <v>51</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1615,10 +1633,12 @@
       <c r="I21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1632,20 +1652,26 @@
         <v>57</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="40"/>
       <c r="H23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="J23" s="9" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1673,7 +1699,7 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="6" t="s">
         <v>68</v>
       </c>
@@ -1688,13 +1714,13 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1724,7 +1750,7 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1732,12 +1758,12 @@
         <v>51</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -1748,8 +1774,8 @@
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>138</v>
+      <c r="A30" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>124</v>
@@ -1776,9 +1802,9 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1792,7 +1818,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -1803,12 +1829,12 @@
         <v>51</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="39" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1838,7 +1864,7 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="6" t="s">
         <v>117</v>
       </c>
@@ -1856,7 +1882,7 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -1872,17 +1898,17 @@
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>163</v>
+      <c r="A36" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="7">
         <v>3</v>
@@ -1898,9 +1924,9 @@
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -1916,7 +1942,7 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -1927,13 +1953,13 @@
         <v>51</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
@@ -1945,20 +1971,24 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+        <v>147</v>
+      </c>
+      <c r="E40" s="27">
+        <v>4</v>
+      </c>
+      <c r="F40" s="27">
+        <v>2</v>
+      </c>
       <c r="G40" s="27" t="s">
         <v>75</v>
       </c>
@@ -1966,7 +1996,7 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="27" t="s">
         <v>37</v>
       </c>
@@ -1979,7 +2009,7 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -1990,54 +2020,69 @@
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="E43" s="27">
+        <v>4</v>
+      </c>
+      <c r="F43" s="27">
+        <v>2</v>
+      </c>
       <c r="G43" s="27"/>
-      <c r="H43" s="29"/>
+      <c r="H43" s="29" t="s">
+        <v>122</v>
+      </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="6"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="11"/>
+      <c r="H44" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
-      <c r="I45" s="26"/>
+      <c r="H45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>172</v>
+      </c>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>139</v>
+      <c r="A46" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="36" t="s">
         <v>45</v>
@@ -2056,18 +2101,18 @@
         <v>51</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="38" t="s">
         <v>121</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -2076,12 +2121,12 @@
         <v>51</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="37" t="s">
         <v>62</v>
       </c>
@@ -2099,17 +2144,17 @@
       <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>138</v>
+      <c r="A49" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49" s="18">
         <v>3</v>
@@ -2122,14 +2167,14 @@
         <v>51</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -2139,11 +2184,11 @@
         <v>51</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -2154,22 +2199,22 @@
         <v>51</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
-        <v>138</v>
+      <c r="A52" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="18">
         <v>3</v>
@@ -2186,12 +2231,12 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -2199,9 +2244,9 @@
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -2212,120 +2257,68 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
-        <v>138</v>
+      <c r="A55" s="39" t="s">
+        <v>139</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E55" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" s="6">
         <v>2</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-    </row>
-    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="6">
-        <v>3</v>
-      </c>
-      <c r="F58" s="6">
-        <v>2</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A56" s="40"/>
+      <c r="B56" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
+      <c r="A59" s="16"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="21"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I73" s="1"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A46:A48"/>
+  <mergeCells count="27">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A52:A54"/>
@@ -2342,6 +2335,17 @@
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A46:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2362,7 +2366,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2376,7 +2380,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="40"/>
       <c r="B2" t="s">
         <v>70</v>
       </c>
@@ -2394,7 +2398,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="41"/>
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -2409,7 +2413,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2423,7 +2427,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="40"/>
       <c r="B5" t="s">
         <v>109</v>
       </c>
@@ -2435,7 +2439,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="40"/>
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -2450,53 +2454,53 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="40"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="40"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="40"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="41"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luna\PycharmProjects\first-contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\first-contact-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A1AF46-FA3E-41D8-87E0-135FFA570E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="45" windowWidth="23535" windowHeight="15045" xr2:uid="{777C135D-F560-4EBB-9586-EFCFD2AE7990}"/>
+    <workbookView xWindow="1605" yWindow="45" windowWidth="23535" windowHeight="15045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="175">
   <si>
     <t>ENGI</t>
   </si>
@@ -280,9 +279,6 @@
     <t>Fed A</t>
   </si>
   <si>
-    <t>crew bombing</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -301,12 +297,6 @@
     <t>repair arm</t>
   </si>
   <si>
-    <t>can't be healed or cloned</t>
-  </si>
-  <si>
-    <t>very low health</t>
-  </si>
-  <si>
     <t>systems immune to fire</t>
   </si>
   <si>
@@ -316,9 +306,6 @@
     <t>boarders</t>
   </si>
   <si>
-    <t>16 crew limit</t>
-  </si>
-  <si>
     <t>vulcan</t>
   </si>
   <si>
@@ -454,9 +441,6 @@
     <t>active: stun enemies</t>
   </si>
   <si>
-    <t>weak shields, laser charger1 -&gt; ion charger1</t>
-  </si>
-  <si>
     <t>drones -&gt; defense1, 2 crew</t>
   </si>
   <si>
@@ -472,15 +456,6 @@
     <t>1 crew at sector start</t>
   </si>
   <si>
-    <t>big tp, ion bomb</t>
-  </si>
-  <si>
-    <t>weak shields, weak reactor, rapier beam, ion charger1</t>
-  </si>
-  <si>
-    <t>weak shields, halberd, ion charger2</t>
-  </si>
-  <si>
     <t>flak</t>
   </si>
   <si>
@@ -511,9 +486,6 @@
     <t>uncontrollable on low health</t>
   </si>
   <si>
-    <t>weak shields, 2x basic ion, bl1, defense2, hull repair</t>
-  </si>
-  <si>
     <t>cyborg bugs?</t>
   </si>
   <si>
@@ -526,46 +498,64 @@
     <t>teleporter, prometheus missiles</t>
   </si>
   <si>
-    <t>easily created if you have one?</t>
-  </si>
-  <si>
-    <t>death explosion?</t>
-  </si>
-  <si>
     <t>MORE</t>
   </si>
   <si>
     <t>no airlocks</t>
   </si>
   <si>
-    <t>boosting weapons?</t>
-  </si>
-  <si>
     <t>small tp, damage booster, hull laser1</t>
   </si>
   <si>
     <t>small tp, invulnerability booster</t>
   </si>
   <si>
-    <t>beam drone2, laser charger1</t>
-  </si>
-  <si>
-    <t>algae???</t>
-  </si>
-  <si>
-    <t>toxic laser 2?</t>
-  </si>
-  <si>
-    <t>toxic missile?</t>
-  </si>
-  <si>
-    <t>toxic laser?</t>
+    <t>big tp, ion bomb, repair burst</t>
+  </si>
+  <si>
+    <t>3x combat drone1</t>
+  </si>
+  <si>
+    <t>Zoltan C</t>
+  </si>
+  <si>
+    <t>no shields, beam drone1 -&gt; beam drone2, ion charger1 -&gt; ion charger2</t>
+  </si>
+  <si>
+    <t>no shields, no reactor, battery. 3x mini beam, ion charger1</t>
+  </si>
+  <si>
+    <t>no shields, 2x basic ion, bl1, defense2, hull repair</t>
+  </si>
+  <si>
+    <t>no shields, no reactor, battery, basic ion 2x -&gt; 3x</t>
+  </si>
+  <si>
+    <t>spawning weapons</t>
+  </si>
+  <si>
+    <t>ion intruder, ???</t>
+  </si>
+  <si>
+    <t>small tp, 1 dmg 2 proj gemini spawning missiles</t>
+  </si>
+  <si>
+    <t>2x 2 proj 45 radius 10 charge spawner1</t>
+  </si>
+  <si>
+    <t>mind control, 4 proj 60 radius 14 charge spawner2</t>
+  </si>
+  <si>
+    <t>boosting weapons</t>
+  </si>
+  <si>
+    <t>stealthy?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,20 +853,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,8 +1214,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB5B6EC-7B40-4E89-8B24-A8743EE0FB65}">
-  <dimension ref="A1:L70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1231,54 +1230,54 @@
     <col min="5" max="6" width="3.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="55.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="12"/>
       <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
@@ -1291,13 +1290,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="45"/>
       <c r="H4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1308,17 +1307,17 @@
         <v>51</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="44"/>
       <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1331,32 +1330,32 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="45"/>
       <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="46"/>
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1374,12 +1373,12 @@
         <v>61</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="6" t="s">
         <v>78</v>
       </c>
@@ -1394,12 +1393,12 @@
         <v>51</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1409,13 +1408,11 @@
       <c r="H11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="I11" s="23"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1437,38 +1434,38 @@
         <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1493,12 +1490,12 @@
         <v>52</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1506,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>51</v>
@@ -1520,7 +1517,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +1535,7 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1560,13 +1557,15 @@
         <v>75</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
@@ -1583,12 +1582,13 @@
         <v>51</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1598,15 +1598,15 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>150</v>
+        <v>163</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1633,12 +1633,10 @@
       <c r="I21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1646,39 +1644,33 @@
         <v>29</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="45"/>
       <c r="H23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
@@ -1699,12 +1691,12 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>60</v>
@@ -1714,13 +1706,13 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1742,15 +1734,15 @@
         <v>76</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1758,12 +1750,12 @@
         <v>51</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -1774,17 +1766,17 @@
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>137</v>
+      <c r="A30" s="44" t="s">
+        <v>174</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E30" s="27">
         <v>3</v>
@@ -1796,15 +1788,15 @@
         <v>49</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1812,13 +1804,13 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -1829,16 +1821,16 @@
         <v>51</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>28</v>
@@ -1864,9 +1856,9 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1877,12 +1869,12 @@
         <v>51</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -1893,22 +1885,22 @@
         <v>51</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>162</v>
+      <c r="A36" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E36" s="7">
         <v>3</v>
@@ -1924,9 +1916,9 @@
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -1937,12 +1929,12 @@
         <v>51</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -1953,35 +1945,35 @@
         <v>51</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
+      <c r="A39" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E40" s="27">
         <v>4</v>
@@ -1992,11 +1984,16 @@
       <c r="G40" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="10"/>
+      <c r="H40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="27" t="s">
         <v>37</v>
       </c>
@@ -2005,32 +2002,42 @@
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
-      <c r="I41" s="25"/>
+      <c r="H41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>172</v>
+      </c>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="27">
         <v>4</v>
@@ -2040,13 +2047,13 @@
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="6"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -2057,12 +2064,12 @@
         <v>51</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -2073,22 +2080,22 @@
         <v>51</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>138</v>
+      <c r="A46" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C46" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E46" s="36">
         <v>3</v>
@@ -2101,18 +2108,18 @@
         <v>51</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="36" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -2121,12 +2128,12 @@
         <v>51</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="37" t="s">
         <v>62</v>
       </c>
@@ -2144,17 +2151,17 @@
       <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>137</v>
+      <c r="A49" s="44" t="s">
+        <v>133</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E49" s="18">
         <v>3</v>
@@ -2167,14 +2174,14 @@
         <v>51</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -2184,11 +2191,11 @@
         <v>51</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -2199,22 +2206,22 @@
         <v>51</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E52" s="18">
         <v>3</v>
@@ -2227,26 +2234,29 @@
         <v>51</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
+      <c r="I53" s="9" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -2257,68 +2267,30 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="6">
-        <v>3</v>
-      </c>
-      <c r="F55" s="6">
-        <v>2</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="A55" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="21"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="21"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A52:A54"/>
@@ -2335,24 +2307,13 @@
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A46:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD00170-35FD-494F-B2A9-D3FF559633AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2366,152 +2327,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="45"/>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="46"/>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
         <v>107</v>
       </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
         <v>108</v>
       </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="45"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="45"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="45"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="45"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="46"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>100</v>
+      <c r="A20" s="54" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="54"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\first-contact-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eugene\PycharmProjects\first-contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
   <si>
     <t>ENGI</t>
   </si>
@@ -228,9 +228,6 @@
     <t>boarding drones</t>
   </si>
   <si>
-    <t>no cloaking</t>
-  </si>
-  <si>
     <t>higher health</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>boarders</t>
   </si>
   <si>
-    <t>vulcan</t>
-  </si>
-  <si>
     <t>hull missiles -&gt; janus missiles</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
     <t>Mantis A</t>
   </si>
   <si>
-    <t>Mantis C</t>
-  </si>
-  <si>
     <t>small tp, 2x boarding drones</t>
   </si>
   <si>
@@ -510,9 +501,6 @@
     <t>small tp, invulnerability booster</t>
   </si>
   <si>
-    <t>big tp, ion bomb, repair burst</t>
-  </si>
-  <si>
     <t>3x combat drone1</t>
   </si>
   <si>
@@ -522,15 +510,9 @@
     <t>no shields, beam drone1 -&gt; beam drone2, ion charger1 -&gt; ion charger2</t>
   </si>
   <si>
-    <t>no shields, no reactor, battery. 3x mini beam, ion charger1</t>
-  </si>
-  <si>
     <t>no shields, 2x basic ion, bl1, defense2, hull repair</t>
   </si>
   <si>
-    <t>no shields, no reactor, battery, basic ion 2x -&gt; 3x</t>
-  </si>
-  <si>
     <t>spawning weapons</t>
   </si>
   <si>
@@ -550,6 +532,27 @@
   </si>
   <si>
     <t>stealthy?</t>
+  </si>
+  <si>
+    <t>vulcan, basic laser</t>
+  </si>
+  <si>
+    <t>tp big -&gt; small, no cloaking, crystal1</t>
+  </si>
+  <si>
+    <t>tp small -&gt; big</t>
+  </si>
+  <si>
+    <t>big tp, ion bomb, heavy laser1, mantis x3, rock</t>
+  </si>
+  <si>
+    <t>big tp, repair burst, zoltan bypass, mantis x2, zoltan x2, clonebay2</t>
+  </si>
+  <si>
+    <t>no shields, no reactor, battery2, basic ion 2x -&gt; 3x</t>
+  </si>
+  <si>
+    <t>no shields, no reactor, battery2. 3x mini beam, ion charger1</t>
   </si>
 </sst>
 </file>
@@ -862,41 +865,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,48 +1239,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="43"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="42"/>
       <c r="D3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
@@ -1286,17 +1289,17 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="H4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="H4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1307,17 +1310,17 @@
         <v>51</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="42"/>
       <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1326,36 +1329,36 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="43"/>
       <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1367,20 +1370,20 @@
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1393,12 +1396,12 @@
         <v>51</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1412,11 +1415,11 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -1431,41 +1434,47 @@
         <v>2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1484,40 +1493,40 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1530,12 +1539,12 @@
         <v>53</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1554,18 +1563,18 @@
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
@@ -1582,13 +1591,13 @@
         <v>51</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1598,15 +1607,15 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1631,12 +1640,12 @@
         <v>55</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1644,17 +1653,17 @@
         <v>29</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="43"/>
       <c r="H23" s="1" t="s">
         <v>56</v>
       </c>
@@ -1663,14 +1672,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
@@ -1682,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>59</v>
@@ -1691,28 +1700,28 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1731,18 +1740,18 @@
         <v>2</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1750,12 +1759,12 @@
         <v>51</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -1766,17 +1775,17 @@
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>174</v>
+      <c r="A30" s="42" t="s">
+        <v>168</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30" s="27">
         <v>3</v>
@@ -1788,15 +1797,15 @@
         <v>49</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1804,13 +1813,13 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -1821,16 +1830,16 @@
         <v>51</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>28</v>
@@ -1845,20 +1854,20 @@
         <v>2</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1869,12 +1878,12 @@
         <v>51</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -1885,22 +1894,22 @@
         <v>51</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>153</v>
+      <c r="A36" s="42" t="s">
+        <v>150</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E36" s="7">
         <v>3</v>
@@ -1916,9 +1925,9 @@
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -1929,12 +1938,12 @@
         <v>51</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -1945,35 +1954,35 @@
         <v>51</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="A39" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E40" s="27">
         <v>4</v>
@@ -1982,18 +1991,18 @@
         <v>2</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="27" t="s">
         <v>37</v>
       </c>
@@ -2006,12 +2015,12 @@
         <v>51</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
@@ -2022,22 +2031,22 @@
         <v>51</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" s="27">
         <v>4</v>
@@ -2047,13 +2056,13 @@
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="6"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -2064,12 +2073,12 @@
         <v>51</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -2080,22 +2089,22 @@
         <v>51</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>134</v>
+      <c r="A46" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C46" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="36">
         <v>3</v>
@@ -2108,18 +2117,18 @@
         <v>51</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -2128,12 +2137,12 @@
         <v>51</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="37" t="s">
         <v>62</v>
       </c>
@@ -2146,22 +2155,22 @@
         <v>51</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>133</v>
+      <c r="A49" s="42" t="s">
+        <v>130</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E49" s="18">
         <v>3</v>
@@ -2174,14 +2183,14 @@
         <v>51</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -2191,11 +2200,11 @@
         <v>51</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -2206,22 +2215,22 @@
         <v>51</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
-        <v>135</v>
+      <c r="A52" s="42" t="s">
+        <v>132</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E52" s="18">
         <v>3</v>
@@ -2234,29 +2243,29 @@
         <v>51</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="I53" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -2281,18 +2290,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="G1:G2"/>
@@ -2307,6 +2314,8 @@
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2327,145 +2336,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" t="s">
         <v>103</v>
       </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
         <v>107</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="43"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="43"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="43"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="43"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="43"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="43"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="43"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="44"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -525,9 +525,6 @@
     <t>2x 2 proj 45 radius 10 charge spawner1</t>
   </si>
   <si>
-    <t>mind control, 4 proj 60 radius 14 charge spawner2</t>
-  </si>
-  <si>
     <t>boosting weapons</t>
   </si>
   <si>
@@ -553,6 +550,9 @@
   </si>
   <si>
     <t>no shields, no reactor, battery2. 3x mini beam, ion charger1</t>
+  </si>
+  <si>
+    <t>mind control, 4 proj 60 radius 13 charge spawner2</t>
   </si>
 </sst>
 </file>
@@ -874,32 +874,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,42 +1240,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="43"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="52"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="53"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
@@ -1440,7 +1440,7 @@
         <v>125</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>51</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>51</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>128</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J18" s="10"/>
     </row>
@@ -1591,7 +1591,7 @@
         <v>51</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1711,7 +1711,7 @@
         <v>60</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
     </row>
     <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>118</v>
@@ -1894,7 +1894,7 @@
         <v>51</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J35" s="26"/>
     </row>
@@ -1959,15 +1959,15 @@
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
@@ -2015,7 +2015,7 @@
         <v>51</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J41" s="11"/>
     </row>
@@ -2043,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>88</v>
@@ -2290,16 +2290,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="G1:G2"/>
@@ -2316,6 +2306,16 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,8 +24,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eugene</author>
+  </authors>
+  <commentList>
+    <comment ref="C40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>weapons that limit your reactor by 1 with each shot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>weapons that spawn a spawnling (new race)
+takes 4 seconds to spawn
+50 health
+takes 4x damage from fires
+uncontrollable
+uncloneable
+unteleportable
+can't repair or man systems
+does not contribute to crew cap
+is not included in ui on the left</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="181">
   <si>
     <t>ENGI</t>
   </si>
@@ -135,9 +182,6 @@
     <t>regeneration</t>
   </si>
   <si>
-    <t>weak to fire</t>
-  </si>
-  <si>
     <t>generate oxygen</t>
   </si>
   <si>
@@ -228,12 +272,6 @@
     <t>boarding drones</t>
   </si>
   <si>
-    <t>higher health</t>
-  </si>
-  <si>
-    <t>slower speed</t>
-  </si>
-  <si>
     <t>heavy laser</t>
   </si>
   <si>
@@ -378,9 +416,6 @@
     <t>Slug B</t>
   </si>
   <si>
-    <t>active: repair but lose health</t>
-  </si>
-  <si>
     <t>active: invulnerability</t>
   </si>
   <si>
@@ -456,18 +491,12 @@
     <t>2x flak2</t>
   </si>
   <si>
-    <t>2x basic flak, 2x heavy laser 1</t>
-  </si>
-  <si>
     <t>basic flak1, pike beam</t>
   </si>
   <si>
     <t>stun</t>
   </si>
   <si>
-    <t>active: start a fire</t>
-  </si>
-  <si>
     <t>drone reactor booster</t>
   </si>
   <si>
@@ -477,9 +506,6 @@
     <t>uncontrollable on low health</t>
   </si>
   <si>
-    <t>cyborg bugs?</t>
-  </si>
-  <si>
     <t>2x hull laser2</t>
   </si>
   <si>
@@ -501,9 +527,6 @@
     <t>small tp, invulnerability booster</t>
   </si>
   <si>
-    <t>3x combat drone1</t>
-  </si>
-  <si>
     <t>Zoltan C</t>
   </si>
   <si>
@@ -528,9 +551,6 @@
     <t>boosting weapons</t>
   </si>
   <si>
-    <t>stealthy?</t>
-  </si>
-  <si>
     <t>vulcan, basic laser</t>
   </si>
   <si>
@@ -546,20 +566,62 @@
     <t>big tp, repair burst, zoltan bypass, mantis x2, zoltan x2, clonebay2</t>
   </si>
   <si>
-    <t>no shields, no reactor, battery2, basic ion 2x -&gt; 3x</t>
-  </si>
-  <si>
-    <t>no shields, no reactor, battery2. 3x mini beam, ion charger1</t>
-  </si>
-  <si>
     <t>mind control, 4 proj 60 radius 13 charge spawner2</t>
+  </si>
+  <si>
+    <t>strider?</t>
+  </si>
+  <si>
+    <t>50% to get stunned on damage taken</t>
+  </si>
+  <si>
+    <t>50% to deal damage on damage taken</t>
+  </si>
+  <si>
+    <t>crit weapons</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2x basic flak, heavy laser 1</t>
+  </si>
+  <si>
+    <t>cyborgs?</t>
+  </si>
+  <si>
+    <t>0 reactor, battery</t>
+  </si>
+  <si>
+    <t>no shields, 3x mini beam, ion charger1</t>
+  </si>
+  <si>
+    <t>no shields, basic ion 2x -&gt; 3x</t>
+  </si>
+  <si>
+    <t>4x combat drone1</t>
+  </si>
+  <si>
+    <t>fire hazards</t>
+  </si>
+  <si>
+    <t>overclocked weapons</t>
+  </si>
+  <si>
+    <t>weak to fires</t>
+  </si>
+  <si>
+    <t>50% to start a fire on hit</t>
+  </si>
+  <si>
+    <t>active: decrease ion timer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +629,36 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -740,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,9 +879,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,9 +889,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -814,6 +900,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -826,19 +936,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -847,61 +990,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,8 +1348,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1227,60 +1358,65 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="3.42578125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="64.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="42"/>
+      <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="E1" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+        <v>83</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
@@ -1288,39 +1424,43 @@
       <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="G3" s="39">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="I4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1328,37 +1468,40 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="G6" s="39">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1369,21 +1512,24 @@
       <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="7">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1391,35 +1537,37 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -1433,48 +1581,51 @@
       <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="G12" s="39">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+        <v>106</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1492,41 +1643,45 @@
       <c r="F15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="G15" s="7">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1534,21 +1689,22 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="G17" s="39"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>31</v>
@@ -1562,42 +1718,48 @@
       <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="G18" s="7">
+        <v>8</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J19" s="11"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1605,21 +1767,22 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="G20" s="39"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>30</v>
@@ -1633,53 +1796,56 @@
       <c r="F21" s="7">
         <v>2</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="G21" s="7">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
       <c r="B22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="I23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="H23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
@@ -1690,45 +1856,48 @@
       <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="7">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="J25" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>26</v>
@@ -1739,585 +1908,654 @@
       <c r="F27" s="7">
         <v>2</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="G27" s="7">
+        <v>8</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
       <c r="B28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="18"/>
       <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="27">
-        <v>3</v>
-      </c>
-      <c r="F30" s="27">
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
         <v>2</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="G30" s="7">
+        <v>6</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="39"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7">
+        <v>4</v>
+      </c>
+      <c r="G33" s="7">
+        <v>6</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="24">
+        <v>4</v>
+      </c>
+      <c r="F36" s="24">
+        <v>2</v>
+      </c>
+      <c r="G36" s="39">
+        <v>8</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="24">
+        <v>3</v>
+      </c>
+      <c r="F39" s="24">
+        <v>2</v>
+      </c>
+      <c r="G39" s="39">
+        <v>6</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="24">
+        <v>4</v>
+      </c>
+      <c r="F42" s="24">
+        <v>2</v>
+      </c>
+      <c r="G42" s="39">
+        <v>8</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" s="35"/>
+    </row>
+    <row r="45" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="33">
+        <v>3</v>
+      </c>
+      <c r="F45" s="33">
+        <v>2</v>
+      </c>
+      <c r="G45" s="39">
+        <v>8</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="27"/>
+    </row>
+    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="17">
+        <v>3</v>
+      </c>
+      <c r="F49" s="17">
+        <v>3</v>
+      </c>
+      <c r="G49" s="39">
+        <v>4</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="17">
+        <v>3</v>
+      </c>
+      <c r="F52" s="17">
+        <v>3</v>
+      </c>
+      <c r="G52" s="39">
+        <v>8</v>
+      </c>
+      <c r="H52" s="17"/>
+      <c r="I52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="7">
-        <v>4</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="26" t="s">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="J53" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="18"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="7">
-        <v>3</v>
-      </c>
-      <c r="F36" s="7">
-        <v>3</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="27">
-        <v>4</v>
-      </c>
-      <c r="F40" s="27">
-        <v>2</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="27">
-        <v>4</v>
-      </c>
-      <c r="F43" s="27">
-        <v>2</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="36">
-        <v>3</v>
-      </c>
-      <c r="F46" s="36">
-        <v>2</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48" s="30"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="18">
-        <v>3</v>
-      </c>
-      <c r="F49" s="18">
-        <v>3</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="18">
-        <v>3</v>
-      </c>
-      <c r="F52" s="18">
-        <v>3</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="I53" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="21"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="57"/>
+    </row>
+    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A49:A51"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A48:H48"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2336,152 +2574,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="42"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="42"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="42"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="42"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="42"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="42"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>94</v>
+      <c r="A20" s="53" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="53"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
     <author>Eugene</author>
   </authors>
   <commentList>
-    <comment ref="C40" authorId="0" shapeId="0">
+    <comment ref="H30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,11 +39,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>weapons that limit your reactor by 1 with each shot</t>
+          <t>with special backgrounds
+and slug pleasure cruises</t>
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0">
+    <comment ref="C36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,16 +54,59 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>weapons that spawn a spawnling (new race)
-takes 4 seconds to spawn
+          <t>cloaking should limit your reactor by 1 with each use?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>weapons that are stronger than normal but limit your reactor by 1 with each shot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>weapons that spawn a sprout (new race)
+takes 4 seconds to spawn, can't spawn in vacuum
 50 health
 takes 4x damage from fires
 uncontrollable
 uncloneable
 unteleportable
+can't sabotage, only attacks crew
 can't repair or man systems
 does not contribute to crew cap
 is not included in ui on the left</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>infested by sprouts</t>
         </r>
       </text>
     </comment>
@@ -72,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="186">
   <si>
     <t>ENGI</t>
   </si>
@@ -215,12 +258,6 @@
     <t>cloaking</t>
   </si>
   <si>
-    <t>SECTOR</t>
-  </si>
-  <si>
-    <t>nebula</t>
-  </si>
-  <si>
     <t>Engi A</t>
   </si>
   <si>
@@ -287,12 +324,6 @@
     <t>fire drone, laser charger 1, fire bomb</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>bl1 -&gt; hull laser 2, no breach bomb</t>
   </si>
   <si>
@@ -335,63 +366,12 @@
     <t>systems immune to fire</t>
   </si>
   <si>
-    <t>tricks</t>
-  </si>
-  <si>
-    <t>boarders</t>
-  </si>
-  <si>
     <t>hull missiles -&gt; janus missiles</t>
   </si>
   <si>
     <t>chain eraser, bl1</t>
   </si>
   <si>
-    <t>STEALTH</t>
-  </si>
-  <si>
-    <t>ion weapon</t>
-  </si>
-  <si>
-    <t>laser drone</t>
-  </si>
-  <si>
-    <t>combat drone</t>
-  </si>
-  <si>
-    <t>heavy weapon</t>
-  </si>
-  <si>
-    <t>internal drone</t>
-  </si>
-  <si>
-    <t>laser weapon</t>
-  </si>
-  <si>
-    <t>beam drone</t>
-  </si>
-  <si>
-    <t>small teleporter</t>
-  </si>
-  <si>
-    <t>big teleporter</t>
-  </si>
-  <si>
-    <t>sysDamage bomb</t>
-  </si>
-  <si>
-    <t>defense drone</t>
-  </si>
-  <si>
-    <t>boarding drone</t>
-  </si>
-  <si>
-    <t>lockdown bomb</t>
-  </si>
-  <si>
-    <t>stun bomb</t>
-  </si>
-  <si>
     <t>hindering bomb</t>
   </si>
   <si>
@@ -461,9 +441,6 @@
     <t>fungi?</t>
   </si>
   <si>
-    <t>hazards</t>
-  </si>
-  <si>
     <t>active: stun enemies</t>
   </si>
   <si>
@@ -569,18 +546,12 @@
     <t>mind control, 4 proj 60 radius 13 charge spawner2</t>
   </si>
   <si>
-    <t>strider?</t>
-  </si>
-  <si>
     <t>50% to get stunned on damage taken</t>
   </si>
   <si>
     <t>50% to deal damage on damage taken</t>
   </si>
   <si>
-    <t>crit weapons</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -602,26 +573,113 @@
     <t>4x combat drone1</t>
   </si>
   <si>
-    <t>fire hazards</t>
-  </si>
-  <si>
-    <t>overclocked weapons</t>
-  </si>
-  <si>
     <t>weak to fires</t>
   </si>
   <si>
-    <t>50% to start a fire on hit</t>
-  </si>
-  <si>
     <t>active: decrease ion timer</t>
+  </si>
+  <si>
+    <t>SECTORS</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>NEBULA</t>
+  </si>
+  <si>
+    <t>civilian sector</t>
+  </si>
+  <si>
+    <t>rebel controlled</t>
+  </si>
+  <si>
+    <t>uncharted nebula</t>
+  </si>
+  <si>
+    <t>pirate hideout</t>
+  </si>
+  <si>
+    <t>rebel stronghold</t>
+  </si>
+  <si>
+    <t>lanius stasis nebula</t>
+  </si>
+  <si>
+    <t>rock fortified sector</t>
+  </si>
+  <si>
+    <t>LEPTOD</t>
+  </si>
+  <si>
+    <t>hyper weapons</t>
+  </si>
+  <si>
+    <t>lizard last refuge</t>
+  </si>
+  <si>
+    <t>zoltan turbulent nebula</t>
+  </si>
+  <si>
+    <t>zoltan perquisition zone</t>
+  </si>
+  <si>
+    <t>mantis hunting grounds</t>
+  </si>
+  <si>
+    <t>lizard ruins</t>
+  </si>
+  <si>
+    <t>lanius resurgence point</t>
+  </si>
+  <si>
+    <t>orchid gardenworlds</t>
+  </si>
+  <si>
+    <t>pavonian iridescent worlds</t>
+  </si>
+  <si>
+    <t>pavonian disordered sector</t>
+  </si>
+  <si>
+    <t>leptod weapon test sector</t>
+  </si>
+  <si>
+    <t>slug volatile nebula</t>
+  </si>
+  <si>
+    <t>slug home nebula</t>
+  </si>
+  <si>
+    <t>leptod hidden home nebula</t>
+  </si>
+  <si>
+    <t>rock perilous sector</t>
+  </si>
+  <si>
+    <t>engi research hub</t>
+  </si>
+  <si>
+    <t>engi contested worlds</t>
+  </si>
+  <si>
+    <t>mantis brood worlds</t>
+  </si>
+  <si>
+    <t>overgrown orchid sector</t>
+  </si>
+  <si>
+    <t>50% to start a fire on damage dealt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,14 +691,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -817,22 +867,18 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,94 +991,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1362,61 +1414,73 @@
     <col min="3" max="3" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="64.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="3.42578125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="64.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="56"/>
+      <c r="B1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="46" t="s">
+      <c r="E1" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="59"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="51"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="M1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+        <v>79</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="62"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
@@ -1424,43 +1488,54 @@
       <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="I4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="H3" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="K4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1468,40 +1543,46 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>8</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="I7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="I8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="I6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="I7" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="K8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1516,20 +1597,22 @@
         <v>6</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+        <v>181</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1537,37 +1620,43 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -1581,51 +1670,51 @@
       <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>8</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="I12" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+        <v>85</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="K14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1646,42 +1735,46 @@
       <c r="G15" s="7">
         <v>8</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1689,18 +1782,20 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="G17" s="38"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1722,18 +1817,22 @@
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+        <v>169</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
       <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
@@ -1741,25 +1840,25 @@
         <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="L19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1767,18 +1866,20 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1799,53 +1900,56 @@
       <c r="G21" s="7">
         <v>8</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="I23" s="1" t="s">
+      <c r="J22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
@@ -1859,38 +1963,46 @@
       <c r="G24" s="7">
         <v>8</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="54" t="s">
-        <v>167</v>
+      <c r="H24" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="68"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="42" t="s">
+        <v>144</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1911,48 +2023,54 @@
       <c r="G27" s="7">
         <v>8</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
       <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="K28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="18"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="18"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="67" t="s">
-        <v>180</v>
+      <c r="B30" s="54" t="s">
+        <v>153</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -1970,418 +2088,459 @@
         <v>6</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+        <v>174</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
       <c r="B31" s="6" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" s="40"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="G32" s="39"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="24">
+        <v>4</v>
+      </c>
+      <c r="F33" s="24">
+        <v>2</v>
+      </c>
+      <c r="G33" s="38">
+        <v>8</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="7">
-        <v>2</v>
-      </c>
-      <c r="F33" s="7">
-        <v>4</v>
-      </c>
-      <c r="G33" s="7">
-        <v>6</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="17" t="s">
-        <v>143</v>
-      </c>
+      <c r="K33" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>158</v>
+      <c r="G34" s="38"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E36" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" s="24">
         <v>2</v>
       </c>
-      <c r="G36" s="39">
-        <v>8</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="26" t="s">
+      <c r="G36" s="38">
+        <v>6</v>
+      </c>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="J38" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="K38" s="23"/>
-    </row>
-    <row r="39" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="E39" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="24">
         <v>2</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="38">
+        <v>8</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="H40" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4</v>
+      </c>
+      <c r="G43" s="7">
         <v>6</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="L44" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="33">
+        <v>3</v>
+      </c>
+      <c r="F46" s="33">
+        <v>2</v>
+      </c>
+      <c r="G46" s="38">
+        <v>8</v>
+      </c>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="57"/>
+      <c r="B48" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="24">
-        <v>4</v>
-      </c>
-      <c r="F42" s="24">
-        <v>2</v>
-      </c>
-      <c r="G42" s="39">
-        <v>8</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="J43" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="K44" s="35"/>
-    </row>
-    <row r="45" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="33">
-        <v>3</v>
-      </c>
-      <c r="F45" s="33">
-        <v>2</v>
-      </c>
-      <c r="G45" s="39">
-        <v>8</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="E49" s="17">
         <v>3</v>
@@ -2389,63 +2548,65 @@
       <c r="F49" s="17">
         <v>3</v>
       </c>
-      <c r="G49" s="39">
+      <c r="G49" s="38">
         <v>4</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J50" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="57"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J51" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
-        <v>128</v>
+      <c r="G51" s="39"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>107</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>65</v>
+        <v>108</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E52" s="17">
         <v>3</v>
@@ -2453,285 +2614,84 @@
       <c r="F52" s="17">
         <v>3</v>
       </c>
-      <c r="G52" s="39">
+      <c r="G52" s="38">
         <v>8</v>
       </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="54" t="s">
-        <v>134</v>
+      <c r="J52" s="17"/>
+      <c r="K52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="J53" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="55" t="s">
-        <v>126</v>
+      <c r="J53" s="17"/>
+      <c r="L53" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="57"/>
+      <c r="B54" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="18"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="57"/>
-    </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="1"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="18"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H24:J26"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="20" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -576,9 +576,6 @@
     <t>weak to fires</t>
   </si>
   <si>
-    <t>active: decrease ion timer</t>
-  </si>
-  <si>
     <t>SECTORS</t>
   </si>
   <si>
@@ -609,9 +606,6 @@
     <t>lanius stasis nebula</t>
   </si>
   <si>
-    <t>rock fortified sector</t>
-  </si>
-  <si>
     <t>LEPTOD</t>
   </si>
   <si>
@@ -642,24 +636,9 @@
     <t>pavonian iridescent worlds</t>
   </si>
   <si>
-    <t>pavonian disordered sector</t>
-  </si>
-  <si>
-    <t>leptod weapon test sector</t>
-  </si>
-  <si>
-    <t>slug volatile nebula</t>
-  </si>
-  <si>
     <t>slug home nebula</t>
   </si>
   <si>
-    <t>leptod hidden home nebula</t>
-  </si>
-  <si>
-    <t>rock perilous sector</t>
-  </si>
-  <si>
     <t>engi research hub</t>
   </si>
   <si>
@@ -673,6 +652,27 @@
   </si>
   <si>
     <t>50% to start a fire on damage dealt</t>
+  </si>
+  <si>
+    <t>rock safe haven</t>
+  </si>
+  <si>
+    <t>leptod dimmed space</t>
+  </si>
+  <si>
+    <t>leptod secret lair</t>
+  </si>
+  <si>
+    <t>active: decrease ion timer OR 3 training level</t>
+  </si>
+  <si>
+    <t>pavonian folly</t>
+  </si>
+  <si>
+    <t>rock volatile wasteland</t>
+  </si>
+  <si>
+    <t>slug stormy nebula</t>
   </si>
 </sst>
 </file>
@@ -1042,49 +1042,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1410,14 +1410,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" style="38" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="64.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -1425,36 +1425,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="63" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="58" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="63"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="60"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="8" t="s">
         <v>78</v>
       </c>
@@ -1465,20 +1465,20 @@
         <v>145</v>
       </c>
       <c r="H2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="61"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="57"/>
       <c r="D3" s="6" t="s">
         <v>76</v>
       </c>
@@ -1492,26 +1492,26 @@
         <v>8</v>
       </c>
       <c r="H3" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="J3" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="K4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1530,7 +1530,7 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="57"/>
       <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
@@ -1547,16 +1547,16 @@
         <v>8</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="I7" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>48</v>
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="61"/>
       <c r="K8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1575,7 +1575,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="57" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1597,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1610,7 +1610,7 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="6" t="s">
         <v>70</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="38"/>
       <c r="H10" s="40" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="6"/>
@@ -1635,7 +1635,7 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1652,7 +1652,7 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>100</v>
@@ -1684,7 +1684,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>85</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>48</v>
@@ -1702,7 +1702,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="57" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4" t="s">
@@ -1749,7 +1749,7 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="G16" s="38"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="2" t="s">
@@ -1774,7 +1774,7 @@
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1817,11 +1817,11 @@
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>103</v>
@@ -1832,7 +1832,7 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1903,7 +1903,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>52</v>
@@ -1914,7 +1914,7 @@
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>54</v>
@@ -1932,7 +1932,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="58"/>
       <c r="J23" s="40"/>
       <c r="K23" s="1" t="s">
         <v>53</v>
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="57" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1963,11 +1963,11 @@
       <c r="G24" s="7">
         <v>8</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="55"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="57"/>
       <c r="K24" s="4" t="s">
         <v>56</v>
       </c>
@@ -1975,16 +1975,16 @@
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="42" t="s">
         <v>144</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="56"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="58"/>
       <c r="K25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1993,16 +1993,16 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="57"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2025,10 +2025,10 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>95</v>
@@ -2039,7 +2039,7 @@
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -2066,11 +2066,11 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="57" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -2088,7 +2088,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2101,7 +2101,7 @@
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="6" t="s">
         <v>87</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="38"/>
       <c r="H31" s="40" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I31" s="40"/>
       <c r="J31" s="6"/>
@@ -2124,7 +2124,7 @@
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -2143,7 +2143,7 @@
       <c r="M32" s="23"/>
     </row>
     <row r="33" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -2165,11 +2165,11 @@
         <v>8</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I33" s="40"/>
       <c r="J33" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K33" s="26" t="s">
         <v>92</v>
@@ -2178,7 +2178,7 @@
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="44"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -2197,7 +2197,7 @@
       <c r="M34" s="11"/>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -2216,8 +2216,8 @@
       <c r="M35" s="23"/>
     </row>
     <row r="36" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
-        <v>165</v>
+      <c r="A36" s="57" t="s">
+        <v>163</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>93</v>
@@ -2239,10 +2239,10 @@
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K36" s="26" t="s">
         <v>98</v>
@@ -2251,12 +2251,12 @@
       <c r="M36" s="11"/>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="42" t="s">
         <v>143</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2272,7 +2272,7 @@
       <c r="M37" s="11"/>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2291,7 +2291,7 @@
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="42" t="s">
@@ -2313,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I39" s="40"/>
       <c r="J39" s="24"/>
@@ -2326,7 +2326,7 @@
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="44" t="s">
         <v>152</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="H40" s="44" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="49" t="s">
@@ -2347,7 +2347,7 @@
       <c r="M40" s="11"/>
     </row>
     <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="53"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -2366,23 +2366,23 @@
       <c r="M41" s="35"/>
     </row>
     <row r="42" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="60"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="57" t="s">
         <v>147</v>
       </c>
       <c r="B43" s="17" t="s">
@@ -2413,7 +2413,7 @@
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="17" t="s">
         <v>121</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -2453,11 +2453,11 @@
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="57" t="s">
         <v>106</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>44</v>
@@ -2486,7 +2486,7 @@
       <c r="M46" s="11"/>
     </row>
     <row r="47" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="45" t="s">
         <v>91</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="M47" s="11"/>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="34" t="s">
         <v>59</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="57" t="s">
         <v>105</v>
       </c>
       <c r="B49" s="17" t="s">
@@ -2560,7 +2560,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
         <v>114</v>
@@ -2577,7 +2577,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -2596,7 +2596,7 @@
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="57" t="s">
         <v>107</v>
       </c>
       <c r="B52" s="17" t="s">
@@ -2626,7 +2626,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="42" t="s">
         <v>112</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="43" t="s">
         <v>105</v>
       </c>
@@ -2662,21 +2662,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H24:J26"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A30:A32"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A46:A48"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A15:A17"/>
@@ -2685,10 +2681,14 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H24:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -44,34 +44,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>cloaking should limit your reactor by 1 with each use?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>weapons that are stronger than normal but limit your reactor by 1 with each shot</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
@@ -115,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="185">
   <si>
     <t>ENGI</t>
   </si>
@@ -522,9 +494,6 @@
     <t>small tp, 1 dmg 2 proj gemini spawning missiles</t>
   </si>
   <si>
-    <t>2x 2 proj 45 radius 10 charge spawner1</t>
-  </si>
-  <si>
     <t>boosting weapons</t>
   </si>
   <si>
@@ -543,9 +512,6 @@
     <t>big tp, repair burst, zoltan bypass, mantis x2, zoltan x2, clonebay2</t>
   </si>
   <si>
-    <t>mind control, 4 proj 60 radius 13 charge spawner2</t>
-  </si>
-  <si>
     <t>50% to get stunned on damage taken</t>
   </si>
   <si>
@@ -609,9 +575,6 @@
     <t>LEPTOD</t>
   </si>
   <si>
-    <t>hyper weapons</t>
-  </si>
-  <si>
     <t>lizard last refuge</t>
   </si>
   <si>
@@ -663,9 +626,6 @@
     <t>leptod secret lair</t>
   </si>
   <si>
-    <t>active: decrease ion timer OR 3 training level</t>
-  </si>
-  <si>
     <t>pavonian folly</t>
   </si>
   <si>
@@ -673,6 +633,15 @@
   </si>
   <si>
     <t>slug stormy nebula</t>
+  </si>
+  <si>
+    <t>active: ?</t>
+  </si>
+  <si>
+    <t>mind control, 4 proj 60 radius 15 charge spawner2</t>
+  </si>
+  <si>
+    <t>2x 2 proj 45 radius 12 charge spawner1</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1410,7 @@
       <c r="F1" s="63"/>
       <c r="G1" s="58"/>
       <c r="H1" s="62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I1" s="63"/>
       <c r="J1" s="58"/>
@@ -1462,16 +1431,16 @@
         <v>79</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H2" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>156</v>
       </c>
       <c r="K2" s="66"/>
       <c r="L2" s="12"/>
@@ -1492,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="H3" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>73</v>
@@ -1547,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>75</v>
@@ -1556,7 +1525,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
       <c r="I7" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>48</v>
@@ -1597,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1622,7 +1591,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="38"/>
       <c r="H10" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="6"/>
@@ -1674,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1692,13 +1661,13 @@
         <v>85</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1710,7 +1679,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1737,7 +1706,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4" t="s">
@@ -1762,7 +1731,7 @@
       <c r="G16" s="38"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="2" t="s">
@@ -1817,17 +1786,17 @@
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M18" s="10"/>
     </row>
@@ -1840,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1852,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -1903,7 +1872,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>52</v>
@@ -1922,7 +1891,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>54</v>
@@ -1977,7 +1946,7 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>86</v>
@@ -1989,7 +1958,7 @@
         <v>57</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2025,10 +1994,10 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>95</v>
@@ -2088,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2111,7 +2080,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="38"/>
       <c r="H31" s="40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I31" s="40"/>
       <c r="J31" s="6"/>
@@ -2138,7 +2107,7 @@
         <v>48</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M32" s="23"/>
     </row>
@@ -2150,7 +2119,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>81</v>
@@ -2165,11 +2134,11 @@
         <v>8</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I33" s="40"/>
       <c r="J33" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K33" s="26" t="s">
         <v>92</v>
@@ -2217,7 +2186,7 @@
     </row>
     <row r="36" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>93</v>
@@ -2239,10 +2208,10 @@
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K36" s="26" t="s">
         <v>98</v>
@@ -2253,11 +2222,9 @@
     <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58"/>
       <c r="B37" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>164</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C37" s="44"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2313,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I39" s="40"/>
       <c r="J39" s="24"/>
@@ -2321,28 +2288,28 @@
         <v>48</v>
       </c>
       <c r="L39" s="48" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
       <c r="B40" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="H40" s="44" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="49" t="s">
         <v>48</v>
       </c>
       <c r="L40" s="46" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="M40" s="11"/>
     </row>
@@ -2383,7 +2350,7 @@
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>120</v>
@@ -2448,7 +2415,7 @@
         <v>48</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M45" s="12"/>
     </row>
@@ -2457,7 +2424,7 @@
         <v>106</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>44</v>
@@ -2573,7 +2540,7 @@
         <v>48</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -29,7 +29,7 @@
     <author>Eugene</author>
   </authors>
   <commentList>
-    <comment ref="H30" authorId="0" shapeId="0">
+    <comment ref="H33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="0" shapeId="0">
+    <comment ref="C55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,36 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>infested by sprouts</t>
+          <t>each use limits reactor by 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>beam first room 3 dmg, second room 2 dmg, third room 1 dmg, next rooms 0 dmg
+laser first projectile 3 dmg, second projectile 2 dng, third projectile 1 dmg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>x% chance to deal double damage</t>
         </r>
       </text>
     </comment>
@@ -87,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="183">
   <si>
     <t>ENGI</t>
   </si>
@@ -140,9 +169,6 @@
     <t>fire immunity</t>
   </si>
   <si>
-    <t>high health</t>
-  </si>
-  <si>
     <t>ZOLTAN</t>
   </si>
   <si>
@@ -173,9 +199,6 @@
     <t>system casing</t>
   </si>
   <si>
-    <t>chain</t>
-  </si>
-  <si>
     <t>anti-bio</t>
   </si>
   <si>
@@ -191,12 +214,6 @@
     <t>PAVONIAN</t>
   </si>
   <si>
-    <t>death explosion</t>
-  </si>
-  <si>
-    <t>regeneration</t>
-  </si>
-  <si>
     <t>generate oxygen</t>
   </si>
   <si>
@@ -215,9 +232,6 @@
     <t>provide power</t>
   </si>
   <si>
-    <t>low health</t>
-  </si>
-  <si>
     <t>SHIPS</t>
   </si>
   <si>
@@ -350,9 +364,6 @@
     <t>lockdown</t>
   </si>
   <si>
-    <t>more damage taken</t>
-  </si>
-  <si>
     <t>long ranged scanners</t>
   </si>
   <si>
@@ -413,9 +424,6 @@
     <t>fungi?</t>
   </si>
   <si>
-    <t>active: stun enemies</t>
-  </si>
-  <si>
     <t>drones -&gt; defense1, 2 crew</t>
   </si>
   <si>
@@ -425,9 +433,6 @@
     <t>fire beam, ion bomb, basic laser</t>
   </si>
   <si>
-    <t>stun immunity</t>
-  </si>
-  <si>
     <t>1 crew at sector start</t>
   </si>
   <si>
@@ -437,27 +442,12 @@
     <t>flak arty, scythe beam</t>
   </si>
   <si>
-    <t>2x flak2</t>
-  </si>
-  <si>
-    <t>basic flak1, pike beam</t>
-  </si>
-  <si>
     <t>stun</t>
   </si>
   <si>
     <t>drone reactor booster</t>
   </si>
   <si>
-    <t>less damage taken</t>
-  </si>
-  <si>
-    <t>uncontrollable on low health</t>
-  </si>
-  <si>
-    <t>2x hull laser2</t>
-  </si>
-  <si>
     <t>adv-flak -&gt; artemis</t>
   </si>
   <si>
@@ -512,21 +502,9 @@
     <t>big tp, repair burst, zoltan bypass, mantis x2, zoltan x2, clonebay2</t>
   </si>
   <si>
-    <t>50% to get stunned on damage taken</t>
-  </si>
-  <si>
-    <t>50% to deal damage on damage taken</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>2x basic flak, heavy laser 1</t>
-  </si>
-  <si>
-    <t>cyborgs?</t>
-  </si>
-  <si>
     <t>0 reactor, battery</t>
   </si>
   <si>
@@ -572,9 +550,6 @@
     <t>lanius stasis nebula</t>
   </si>
   <si>
-    <t>LEPTOD</t>
-  </si>
-  <si>
     <t>lizard last refuge</t>
   </si>
   <si>
@@ -614,34 +589,82 @@
     <t>overgrown orchid sector</t>
   </si>
   <si>
-    <t>50% to start a fire on damage dealt</t>
-  </si>
-  <si>
     <t>rock safe haven</t>
   </si>
   <si>
-    <t>leptod dimmed space</t>
-  </si>
-  <si>
-    <t>leptod secret lair</t>
-  </si>
-  <si>
-    <t>pavonian folly</t>
-  </si>
-  <si>
     <t>rock volatile wasteland</t>
   </si>
   <si>
     <t>slug stormy nebula</t>
   </si>
   <si>
-    <t>active: ?</t>
-  </si>
-  <si>
     <t>mind control, 4 proj 60 radius 15 charge spawner2</t>
   </si>
   <si>
     <t>2x 2 proj 45 radius 12 charge spawner1</t>
+  </si>
+  <si>
+    <t>active: start a fire</t>
+  </si>
+  <si>
+    <t>more health</t>
+  </si>
+  <si>
+    <t>less health</t>
+  </si>
+  <si>
+    <t>metal tripods?</t>
+  </si>
+  <si>
+    <t>health regeneration</t>
+  </si>
+  <si>
+    <t>cyborg bugs?</t>
+  </si>
+  <si>
+    <t>chain weapons</t>
+  </si>
+  <si>
+    <t>hyper weapons</t>
+  </si>
+  <si>
+    <t>cascade weapons</t>
+  </si>
+  <si>
+    <t>crit weapons</t>
+  </si>
+  <si>
+    <t>hacking, 2x mini beam</t>
+  </si>
+  <si>
+    <t>pavonian communities</t>
+  </si>
+  <si>
+    <t>? dimmed space</t>
+  </si>
+  <si>
+    <t>? secret lair</t>
+  </si>
+  <si>
+    <t>2x flak2, ???</t>
+  </si>
+  <si>
+    <t>2x basic flak, heavy laser 1, ???</t>
+  </si>
+  <si>
+    <t>basic flak1, pike beam, ???</t>
+  </si>
+  <si>
+    <t>damage to enemy crew on death</t>
+  </si>
+  <si>
+    <t>active: restore health to self and allies</t>
+  </si>
+  <si>
+    <t>AQUARIAN</t>
+  </si>
+  <si>
+    <t>active: restore health, cause breach</t>
   </si>
 </sst>
 </file>
@@ -847,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -975,9 +998,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,7 +1028,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1017,43 +1079,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,7 +1408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1378,14 +1416,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="64.140625" style="9" bestFit="1" customWidth="1"/>
@@ -1394,62 +1432,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="68" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="55"/>
+      <c r="E1" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="67"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="67"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="66"/>
+        <v>137</v>
+      </c>
+      <c r="K2" s="64"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="56"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="60"/>
       <c r="D3" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
@@ -1461,26 +1499,26 @@
         <v>8</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1491,20 +1529,20 @@
       <c r="I5" s="41"/>
       <c r="J5" s="8"/>
       <c r="K5" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="60"/>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1516,42 +1554,42 @@
         <v>8</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="I7" s="40" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="60" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1566,22 +1604,22 @@
         <v>6</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1591,20 +1629,20 @@
       <c r="F10" s="6"/>
       <c r="G10" s="38"/>
       <c r="H10" s="40" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="6"/>
       <c r="K10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1615,17 +1653,17 @@
       <c r="I11" s="41"/>
       <c r="J11" s="8"/>
       <c r="K11" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -1643,47 +1681,47 @@
         <v>8</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1704,48 +1742,48 @@
       <c r="G15" s="7">
         <v>8</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="I15" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="38"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="40" t="s">
-        <v>180</v>
-      </c>
+      <c r="I16" s="40"/>
       <c r="J16" s="6"/>
       <c r="K16" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1756,25 +1794,25 @@
       <c r="I17" s="40"/>
       <c r="J17" s="6"/>
       <c r="K17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>18</v>
+      <c r="A18" s="60" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="7">
         <v>4</v>
@@ -1786,30 +1824,30 @@
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1818,18 +1856,18 @@
       <c r="I19" s="40"/>
       <c r="J19" s="6"/>
       <c r="K19" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1840,25 +1878,25 @@
       <c r="I20" s="40"/>
       <c r="J20" s="6"/>
       <c r="K20" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>19</v>
+      <c r="A21" s="60" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="7">
         <v>4</v>
@@ -1872,56 +1910,56 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="J23" s="40"/>
       <c r="K23" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>20</v>
+      <c r="A24" s="60" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="7">
         <v>4</v>
@@ -1932,56 +1970,56 @@
       <c r="G24" s="7">
         <v>8</v>
       </c>
-      <c r="H24" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="65"/>
-      <c r="J24" s="57"/>
+      <c r="H24" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="73"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="42" t="s">
-        <v>142</v>
+      <c r="A25" s="61"/>
+      <c r="B25" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="58"/>
+        <v>81</v>
+      </c>
+      <c r="H25" s="63"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="61"/>
       <c r="K25" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="61"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="64"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="62"/>
     </row>
     <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>21</v>
+      <c r="A27" s="60" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="7">
         <v>4</v>
@@ -1994,35 +2032,37 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O28"/>
     </row>
     <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2034,139 +2074,141 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="7">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7">
+    <row r="30" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="24">
+        <v>3</v>
+      </c>
+      <c r="F30" s="24">
         <v>2</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="38">
         <v>6</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="10"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="6"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>29</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="38"/>
-      <c r="H31" s="40" t="s">
-        <v>179</v>
-      </c>
+      <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="K31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="39"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
-      <c r="J32" s="25"/>
+      <c r="J32" s="16"/>
       <c r="K32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="24">
+        <v>43</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="7">
         <v>4</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="7">
         <v>2</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="7">
         <v>8</v>
       </c>
-      <c r="H33" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
+      <c r="H33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="40"/>
+      <c r="H34" s="40" t="s">
+        <v>173</v>
+      </c>
       <c r="I34" s="40"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="52" t="s">
-        <v>127</v>
+      <c r="J34" s="6"/>
+      <c r="K34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="M34" s="11"/>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -2176,99 +2218,99 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="51" t="s">
-        <v>128</v>
+      <c r="K35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="M35" s="23"/>
     </row>
-    <row r="36" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>46</v>
+    <row r="36" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E36" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="24">
         <v>2</v>
       </c>
       <c r="G36" s="38">
-        <v>6</v>
-      </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40" t="s">
-        <v>177</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="40"/>
       <c r="J36" s="24" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="38"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L37" s="11"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="51" t="s">
+        <v>114</v>
+      </c>
       <c r="M37" s="11"/>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="39"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="12"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
-        <v>22</v>
+      <c r="A39" s="60" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E39" s="24">
         <v>4</v>
@@ -2280,42 +2322,42 @@
         <v>8</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I39" s="40"/>
+        <v>150</v>
+      </c>
+      <c r="I39" s="59" t="s">
+        <v>156</v>
+      </c>
       <c r="J39" s="24"/>
-      <c r="K39" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="48" t="s">
-        <v>184</v>
+      <c r="K39" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="44" t="s">
-        <v>150</v>
+      <c r="A40" s="61"/>
+      <c r="B40" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
-      <c r="H40" s="44" t="s">
-        <v>174</v>
-      </c>
+      <c r="H40" s="43"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="L40" s="46" t="s">
-        <v>183</v>
+      <c r="K40" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="M40" s="11"/>
     </row>
     <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
@@ -2324,42 +2366,42 @@
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="36"/>
-      <c r="K41" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" s="51" t="s">
-        <v>134</v>
+      <c r="K41" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="50" t="s">
+        <v>121</v>
       </c>
       <c r="M41" s="35"/>
     </row>
     <row r="42" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="60"/>
+      <c r="A42" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="71"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>145</v>
+      <c r="A43" s="60" t="s">
+        <v>167</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E43" s="7">
         <v>2</v>
@@ -2374,16 +2416,14 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="17" t="s">
-        <v>121</v>
-      </c>
+      <c r="A44" s="61"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -2393,15 +2433,15 @@
       <c r="I44" s="40"/>
       <c r="J44" s="17"/>
       <c r="K44" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -2412,25 +2452,25 @@
       <c r="I45" s="41"/>
       <c r="J45" s="18"/>
       <c r="K45" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>175</v>
+      <c r="A46" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>82</v>
+        <v>39</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>77</v>
       </c>
       <c r="E46" s="33">
         <v>3</v>
@@ -2439,27 +2479,27 @@
         <v>2</v>
       </c>
       <c r="G46" s="38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
       <c r="J46" s="28"/>
       <c r="K46" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M46" s="11"/>
     </row>
     <row r="47" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="45" t="s">
-        <v>91</v>
+      <c r="A47" s="61"/>
+      <c r="B47" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
@@ -2468,17 +2508,17 @@
       <c r="I47" s="40"/>
       <c r="J47" s="28"/>
       <c r="K47" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M47" s="11"/>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -2489,25 +2529,25 @@
       <c r="I48" s="41"/>
       <c r="J48" s="29"/>
       <c r="K48" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L48" s="27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M48" s="27"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
-        <v>105</v>
+      <c r="A49" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E49" s="17">
         <v>3</v>
@@ -2516,36 +2556,36 @@
         <v>3</v>
       </c>
       <c r="G49" s="38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J49" s="17"/>
-      <c r="K49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>116</v>
+      <c r="K49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" s="31" t="s">
-        <v>144</v>
+        <v>43</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -2554,26 +2594,21 @@
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L51" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="L51" s="12"/>
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
-        <v>107</v>
+      <c r="A52" s="60" t="s">
+        <v>165</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E52" s="17">
         <v>3</v>
@@ -2582,37 +2617,36 @@
         <v>3</v>
       </c>
       <c r="G52" s="38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J52" s="17"/>
-      <c r="K52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>101</v>
+      <c r="K52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="42" t="s">
-        <v>112</v>
-      </c>
+      <c r="A53" s="61"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="J53" s="17"/>
-      <c r="L53" s="9" t="s">
-        <v>133</v>
+      <c r="K53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="43" t="s">
-        <v>105</v>
-      </c>
+      <c r="A54" s="62"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -2621,25 +2655,76 @@
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
       <c r="J54" s="18"/>
-      <c r="L54" s="12"/>
+      <c r="K54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" s="32" t="s">
+        <v>178</v>
+      </c>
       <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="42" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L59" s="1"/>
     </row>
+    <row r="60" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:G1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A15:A17"/>
@@ -2651,11 +2736,22 @@
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A36:A38"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H24:J26"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -439,9 +439,6 @@
     <t>flak</t>
   </si>
   <si>
-    <t>flak arty, scythe beam</t>
-  </si>
-  <si>
     <t>stun</t>
   </si>
   <si>
@@ -559,18 +556,12 @@
     <t>zoltan perquisition zone</t>
   </si>
   <si>
-    <t>mantis hunting grounds</t>
-  </si>
-  <si>
     <t>lizard ruins</t>
   </si>
   <si>
     <t>lanius resurgence point</t>
   </si>
   <si>
-    <t>orchid gardenworlds</t>
-  </si>
-  <si>
     <t>pavonian iridescent worlds</t>
   </si>
   <si>
@@ -589,12 +580,6 @@
     <t>overgrown orchid sector</t>
   </si>
   <si>
-    <t>rock safe haven</t>
-  </si>
-  <si>
-    <t>rock volatile wasteland</t>
-  </si>
-  <si>
     <t>slug stormy nebula</t>
   </si>
   <si>
@@ -640,12 +625,6 @@
     <t>pavonian communities</t>
   </si>
   <si>
-    <t>? dimmed space</t>
-  </si>
-  <si>
-    <t>? secret lair</t>
-  </si>
-  <si>
     <t>2x flak2, ???</t>
   </si>
   <si>
@@ -665,6 +644,27 @@
   </si>
   <si>
     <t>active: restore health, cause breach</t>
+  </si>
+  <si>
+    <t>mantis slaver colonies</t>
+  </si>
+  <si>
+    <t>aquarian dimmed space</t>
+  </si>
+  <si>
+    <t>aquarian secret lair</t>
+  </si>
+  <si>
+    <t>flak arty, flak1</t>
+  </si>
+  <si>
+    <t>rock holy sanctuary</t>
+  </si>
+  <si>
+    <t>rock-owned wasteland</t>
+  </si>
+  <si>
+    <t>orchid garden worlds</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1448,7 @@
       <c r="F1" s="67"/>
       <c r="G1" s="61"/>
       <c r="H1" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="67"/>
       <c r="J1" s="61"/>
@@ -1469,16 +1469,16 @@
         <v>74</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>136</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>137</v>
       </c>
       <c r="K2" s="64"/>
       <c r="L2" s="12"/>
@@ -1499,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="H3" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="J3" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>68</v>
@@ -1554,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>70</v>
@@ -1563,7 +1563,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="I7" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>43</v>
@@ -1578,7 +1578,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1629,7 +1629,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="38"/>
       <c r="H10" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="6"/>
@@ -1637,7 +1637,7 @@
         <v>43</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M10" s="11"/>
     </row>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1699,13 +1699,13 @@
         <v>80</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
         <v>43</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1743,10 +1743,10 @@
         <v>8</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="4" t="s">
@@ -1783,7 +1783,7 @@
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1824,30 +1824,30 @@
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>97</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1859,7 +1859,7 @@
         <v>43</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -1867,7 +1867,7 @@
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
       <c r="B20" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1878,10 +1878,10 @@
       <c r="I20" s="40"/>
       <c r="J20" s="6"/>
       <c r="K20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="11"/>
     </row>
@@ -1910,7 +1910,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>27</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>81</v>
@@ -1996,7 +1996,7 @@
         <v>52</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2032,10 +2032,10 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>89</v>
@@ -2061,7 +2061,7 @@
     <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="30" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>87</v>
@@ -2098,10 +2098,10 @@
       </c>
       <c r="H30" s="40"/>
       <c r="I30" s="40" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K30" s="26" t="s">
         <v>92</v>
@@ -2145,7 +2145,7 @@
         <v>43</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M32" s="12"/>
     </row>
@@ -2154,10 +2154,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>26</v>
@@ -2172,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2187,7 +2187,7 @@
     <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="43" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2195,7 +2195,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="38"/>
       <c r="H34" s="40" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I34" s="40"/>
       <c r="J34" s="6"/>
@@ -2222,7 +2222,7 @@
         <v>43</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M35" s="23"/>
     </row>
@@ -2231,10 +2231,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>76</v>
@@ -2249,11 +2249,11 @@
         <v>8</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K36" s="26" t="s">
         <v>86</v>
@@ -2276,7 +2276,7 @@
         <v>43</v>
       </c>
       <c r="L37" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M37" s="11"/>
     </row>
@@ -2295,7 +2295,7 @@
         <v>43</v>
       </c>
       <c r="L38" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M38" s="23"/>
     </row>
@@ -2307,7 +2307,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>105</v>
@@ -2322,24 +2322,24 @@
         <v>8</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="I39" s="59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J39" s="24"/>
       <c r="K39" s="46" t="s">
         <v>43</v>
       </c>
       <c r="L39" s="47" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -2351,7 +2351,7 @@
         <v>43</v>
       </c>
       <c r="L40" s="45" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M40" s="11"/>
     </row>
@@ -2370,13 +2370,13 @@
         <v>43</v>
       </c>
       <c r="L41" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M41" s="35"/>
     </row>
     <row r="42" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="70"/>
       <c r="C42" s="70"/>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>99</v>
@@ -2455,7 +2455,7 @@
         <v>43</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M45" s="12"/>
     </row>
@@ -2464,7 +2464,7 @@
         <v>100</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>39</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
@@ -2511,7 +2511,7 @@
         <v>43</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M47" s="11"/>
     </row>
@@ -2570,7 +2570,7 @@
       <c r="A50" s="61"/>
       <c r="B50" s="43"/>
       <c r="C50" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
@@ -2580,7 +2580,7 @@
         <v>43</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="60" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>99</v>
@@ -2608,7 +2608,7 @@
         <v>57</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" s="17">
         <v>3</v>
@@ -2624,7 +2624,7 @@
         <v>43</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>43</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2659,13 +2659,13 @@
         <v>43</v>
       </c>
       <c r="L54" s="32" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C55" s="42" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C58" s="42" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C61" s="42" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -29,21 +29,6 @@
     <author>Eugene</author>
   </authors>
   <commentList>
-    <comment ref="H33" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>with special backgrounds
-and slug pleasure cruises</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
@@ -116,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
   <si>
     <t>ENGI</t>
   </si>
@@ -319,9 +304,6 @@
     <t>deal more damage</t>
   </si>
   <si>
-    <t>hidden</t>
-  </si>
-  <si>
     <t>Kestrel A</t>
   </si>
   <si>
@@ -517,72 +499,6 @@
     <t>weak to fires</t>
   </si>
   <si>
-    <t>SECTORS</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>NEBULA</t>
-  </si>
-  <si>
-    <t>civilian sector</t>
-  </si>
-  <si>
-    <t>rebel controlled</t>
-  </si>
-  <si>
-    <t>uncharted nebula</t>
-  </si>
-  <si>
-    <t>pirate hideout</t>
-  </si>
-  <si>
-    <t>rebel stronghold</t>
-  </si>
-  <si>
-    <t>lanius stasis nebula</t>
-  </si>
-  <si>
-    <t>lizard last refuge</t>
-  </si>
-  <si>
-    <t>zoltan turbulent nebula</t>
-  </si>
-  <si>
-    <t>zoltan perquisition zone</t>
-  </si>
-  <si>
-    <t>lizard ruins</t>
-  </si>
-  <si>
-    <t>lanius resurgence point</t>
-  </si>
-  <si>
-    <t>pavonian iridescent worlds</t>
-  </si>
-  <si>
-    <t>slug home nebula</t>
-  </si>
-  <si>
-    <t>engi research hub</t>
-  </si>
-  <si>
-    <t>engi contested worlds</t>
-  </si>
-  <si>
-    <t>mantis brood worlds</t>
-  </si>
-  <si>
-    <t>overgrown orchid sector</t>
-  </si>
-  <si>
-    <t>slug stormy nebula</t>
-  </si>
-  <si>
     <t>mind control, 4 proj 60 radius 15 charge spawner2</t>
   </si>
   <si>
@@ -622,9 +538,6 @@
     <t>hacking, 2x mini beam</t>
   </si>
   <si>
-    <t>pavonian communities</t>
-  </si>
-  <si>
     <t>2x flak2, ???</t>
   </si>
   <si>
@@ -646,25 +559,7 @@
     <t>active: restore health, cause breach</t>
   </si>
   <si>
-    <t>mantis slaver colonies</t>
-  </si>
-  <si>
-    <t>aquarian dimmed space</t>
-  </si>
-  <si>
-    <t>aquarian secret lair</t>
-  </si>
-  <si>
     <t>flak arty, flak1</t>
-  </si>
-  <si>
-    <t>rock holy sanctuary</t>
-  </si>
-  <si>
-    <t>rock-owned wasteland</t>
-  </si>
-  <si>
-    <t>orchid garden worlds</t>
   </si>
 </sst>
 </file>
@@ -717,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -823,19 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -855,22 +737,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -953,12 +824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,12 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,52 +905,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,73 +1265,56 @@
     <col min="3" max="3" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="64.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="3.42578125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="61"/>
-      <c r="B1" s="65" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="58"/>
+      <c r="B1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="62"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="68"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="69"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="G2" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
@@ -1495,54 +1322,42 @@
       <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="36">
         <v>8</v>
       </c>
-      <c r="H3" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="H4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
       <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1550,46 +1365,40 @@
       <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="36">
         <v>8</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="I7" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="K8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1603,21 +1412,16 @@
       <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="I9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
@@ -1627,39 +1431,31 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="20" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1677,51 +1473,45 @@
       <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="36">
         <v>8</v>
       </c>
-      <c r="I12" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="H12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+        <v>79</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1742,23 +1532,16 @@
       <c r="G15" s="7">
         <v>8</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="I15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1768,41 +1551,35 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
       <c r="B17" s="6" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="1" t="s">
+      <c r="G17" s="36"/>
+      <c r="H17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1823,70 +1600,57 @@
       <c r="G18" s="7">
         <v>8</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="H18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
       <c r="B19" s="6" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
       <c r="B20" s="6" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="2" t="s">
+      <c r="G20" s="36"/>
+      <c r="H20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1907,56 +1671,47 @@
       <c r="G21" s="7">
         <v>8</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
       <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="1" t="s">
+      <c r="I22" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="H23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>22</v>
@@ -1970,46 +1725,35 @@
       <c r="G24" s="7">
         <v>8</v>
       </c>
-      <c r="H24" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="43" t="s">
-        <v>158</v>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="43" t="s">
+      <c r="I25" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="62"/>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+    </row>
+    <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2030,62 +1774,52 @@
       <c r="G27" s="7">
         <v>8</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="H27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
       <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="H28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
       <c r="B29" s="18" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="18"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
-        <v>174</v>
+      <c r="G29" s="37"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>150</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="24">
         <v>3</v>
@@ -2093,71 +1827,58 @@
       <c r="F30" s="24">
         <v>2</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="36">
         <v>6</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="43" t="s">
+      <c r="H30" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58"/>
+      <c r="B31" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+      <c r="G32" s="37"/>
+      <c r="H32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="54" t="s">
-        <v>173</v>
+      <c r="B33" s="50" t="s">
+        <v>149</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>26</v>
@@ -2171,73 +1892,60 @@
       <c r="G33" s="7">
         <v>8</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="10" t="s">
+      <c r="H33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="43" t="s">
-        <v>159</v>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="G35" s="37"/>
+      <c r="H35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>120</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="24">
         <v>4</v>
@@ -2245,72 +1953,59 @@
       <c r="F36" s="24">
         <v>2</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="36">
         <v>8</v>
       </c>
-      <c r="H36" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="K36" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="43"/>
+      <c r="H36" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="58"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="M38" s="23"/>
-    </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
+      <c r="G38" s="37"/>
+      <c r="H38" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>118</v>
+      <c r="C39" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="24">
         <v>4</v>
@@ -2318,90 +2013,75 @@
       <c r="F39" s="24">
         <v>2</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="36">
         <v>8</v>
       </c>
-      <c r="H39" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="I39" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="M39" s="10"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="43" t="s">
-        <v>132</v>
+      <c r="H39" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
+      <c r="B40" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
-      <c r="H40" s="43"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="M41" s="35"/>
-    </row>
-    <row r="42" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="71"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
-        <v>162</v>
+      <c r="H40" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="58"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>139</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="7">
         <v>2</v>
@@ -2412,142 +2092,124 @@
       <c r="G43" s="7">
         <v>6</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-    </row>
-    <row r="44" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="58"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M44" s="11"/>
-    </row>
-    <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+      <c r="G45" s="37"/>
+      <c r="H45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="31">
+        <v>3</v>
+      </c>
+      <c r="F46" s="31">
+        <v>2</v>
+      </c>
+      <c r="G46" s="36">
+        <v>6</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="33">
-        <v>3</v>
-      </c>
-      <c r="F46" s="33">
-        <v>2</v>
-      </c>
-      <c r="G46" s="38">
-        <v>6</v>
-      </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M48" s="27"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
-        <v>101</v>
-      </c>
       <c r="B49" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="38" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="17">
         <v>3</v>
@@ -2555,60 +2217,55 @@
       <c r="F49" s="17">
         <v>3</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="36">
         <v>6</v>
       </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="43"/>
+      <c r="H49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="52"/>
+      <c r="H50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="18"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="60" t="s">
-        <v>160</v>
+      <c r="G51" s="37"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
+        <v>137</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="17">
         <v>3</v>
@@ -2616,134 +2273,104 @@
       <c r="F52" s="17">
         <v>3</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="36">
         <v>4</v>
       </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="H52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L53" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
+      <c r="H53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L54" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="M54" s="12"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C55" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C58" s="42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C61" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="52"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="52"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H24:J26"/>
+  <mergeCells count="25">
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A3:A5"/>
@@ -2752,6 +2379,20 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
